--- a/data/tsunami_evacuation_building/data.xlsx
+++ b/data/tsunami_evacuation_building/data.xlsx
@@ -429,13 +429,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <v>34.34657056</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <v>134.06495</v>
       </c>
       <c r="D2" t="str">
@@ -447,7 +447,7 @@
       <c r="F2" t="str">
         <v>２階・３階</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2">
         <v>1750</v>
       </c>
       <c r="H2" t="str">
@@ -455,13 +455,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <v>34.34667333</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <v>134.0657719</v>
       </c>
       <c r="D3" t="str">
@@ -473,7 +473,7 @@
       <c r="F3" t="str">
         <v>２階・３階</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3">
         <v>1150</v>
       </c>
       <c r="H3" t="str">
@@ -481,13 +481,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>34.34510972</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>134.0717994</v>
       </c>
       <c r="D4" t="str">
@@ -499,7 +499,7 @@
       <c r="F4" t="str">
         <v>立体駐車場の３階以上</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4">
         <v>10000</v>
       </c>
       <c r="H4" t="str">
@@ -507,13 +507,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <v>34.34324028</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <v>134.070955</v>
       </c>
       <c r="D5" t="str">
@@ -525,7 +525,7 @@
       <c r="F5" t="str">
         <v>２階</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5">
         <v>150</v>
       </c>
       <c r="H5" t="str">
@@ -533,13 +533,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <v>34.34065167</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <v>134.0674556</v>
       </c>
       <c r="D6" t="str">
@@ -551,7 +551,7 @@
       <c r="F6" t="str">
         <v>北館２階会議室</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6">
         <v>100</v>
       </c>
       <c r="H6" t="str">
@@ -559,13 +559,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <v>34.34182111</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <v>134.0742075</v>
       </c>
       <c r="D7" t="str">
@@ -577,7 +577,7 @@
       <c r="F7" t="str">
         <v>２階から４階まで</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7">
         <v>4500</v>
       </c>
       <c r="H7" t="str">
@@ -585,13 +585,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <v>34.34009889</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <v>134.0650111</v>
       </c>
       <c r="D8" t="str">
@@ -603,7 +603,7 @@
       <c r="F8" t="str">
         <v>２階</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8">
         <v>100</v>
       </c>
       <c r="H8" t="str">
@@ -611,13 +611,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <v>34.33846583</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <v>134.0608339</v>
       </c>
       <c r="D9" t="str">
@@ -629,7 +629,7 @@
       <c r="F9" t="str">
         <v>体育館　２階</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <v>1000</v>
       </c>
       <c r="H9" t="str">
@@ -637,13 +637,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <v>34.33921861</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <v>134.0652722</v>
       </c>
       <c r="D10" t="str">
@@ -655,7 +655,7 @@
       <c r="F10" t="str">
         <v>立体駐車場の３階以上</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10">
         <v>2850</v>
       </c>
       <c r="H10" t="str">
@@ -663,13 +663,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <v>34.33912694</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <v>134.0671611</v>
       </c>
       <c r="D11" t="str">
@@ -681,7 +681,7 @@
       <c r="F11" t="str">
         <v>駐車場棟　２階以上</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <v>3600</v>
       </c>
       <c r="H11" t="str">
@@ -689,13 +689,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <v>34.33857139</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <v>134.0629114</v>
       </c>
       <c r="D12" t="str">
@@ -707,7 +707,7 @@
       <c r="F12" t="str">
         <v>校舎</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
         <v>1000</v>
       </c>
       <c r="H12" t="str">
@@ -715,13 +715,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <v>34.3451625</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <v>134.0688414</v>
       </c>
       <c r="D13" t="str">
@@ -733,7 +733,7 @@
       <c r="F13" t="str">
         <v>３，４，５階廊下部分および５階第二会議室</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13">
         <v>220</v>
       </c>
       <c r="H13" t="str">
@@ -741,13 +741,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14">
         <v>34.33427194</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <v>134.0664836</v>
       </c>
       <c r="D14" t="str">
@@ -759,7 +759,7 @@
       <c r="F14" t="str">
         <v>校舎</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14">
         <v>300</v>
       </c>
       <c r="H14" t="str">
@@ -767,13 +767,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15">
         <v>34.3372075</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <v>134.0590481</v>
       </c>
       <c r="D15" t="str">
@@ -785,7 +785,7 @@
       <c r="F15" t="str">
         <v>３階の一部と４階</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15">
         <v>350</v>
       </c>
       <c r="H15" t="str">
@@ -793,13 +793,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <v>34.33356056</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <v>134.0576147</v>
       </c>
       <c r="D16" t="str">
@@ -811,7 +811,7 @@
       <c r="F16" t="str">
         <v>校舎</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16">
         <v>250</v>
       </c>
       <c r="H16" t="str">
@@ -819,13 +819,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <v>34.33639917</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <v>134.0535956</v>
       </c>
       <c r="D17" t="str">
@@ -837,7 +837,7 @@
       <c r="F17" t="str">
         <v>９階</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17">
         <v>350</v>
       </c>
       <c r="H17" t="str">
@@ -845,13 +845,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18">
         <v>34.33590194</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <v>134.0566706</v>
       </c>
       <c r="D18" t="str">
@@ -863,7 +863,7 @@
       <c r="F18" t="str">
         <v>２階</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18">
         <v>150</v>
       </c>
       <c r="H18" t="str">
@@ -871,13 +871,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19">
         <v>34.34079583</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <v>134.0573814</v>
       </c>
       <c r="D19" t="str">
@@ -889,7 +889,7 @@
       <c r="F19" t="str">
         <v>２階</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19">
         <v>150</v>
       </c>
       <c r="H19" t="str">
@@ -897,13 +897,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <v>34.33887667</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <v>134.0522514</v>
       </c>
       <c r="D20" t="str">
@@ -915,7 +915,7 @@
       <c r="F20" t="str">
         <v>２階デッキ部分とコンコース</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20">
         <v>5500</v>
       </c>
       <c r="H20" t="str">
@@ -923,13 +923,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21">
         <v>34.34312333</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <v>134.0575728</v>
       </c>
       <c r="D21" t="str">
@@ -939,9 +939,9 @@
         <v>高松市築地町2-5</v>
       </c>
       <c r="F21" t="str">
-        <v>４階ｺﾐｭﾆｹｰｼｮﾝﾙｰﾑ、５階会議室</v>
-      </c>
-      <c r="G21" t="str">
+        <v>４階コミュニケーションルーム、５階会議室</v>
+      </c>
+      <c r="G21">
         <v>150</v>
       </c>
       <c r="H21" t="str">
@@ -949,13 +949,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22">
         <v>34.34533972</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <v>134.0535814</v>
       </c>
       <c r="D22" t="str">
@@ -967,7 +967,7 @@
       <c r="F22" t="str">
         <v>２階・３階</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22">
         <v>800</v>
       </c>
       <c r="H22" t="str">
@@ -975,13 +975,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23">
         <v>34.34711472</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <v>134.0552675</v>
       </c>
       <c r="D23" t="str">
@@ -993,7 +993,7 @@
       <c r="F23" t="str">
         <v>４階・５階の通路スペース</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23">
         <v>150</v>
       </c>
       <c r="H23" t="str">
@@ -1001,13 +1001,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <v>34.35043917</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
         <v>134.055845</v>
       </c>
       <c r="D24" t="str">
@@ -1019,7 +1019,7 @@
       <c r="F24" t="str">
         <v>３階・６階</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="str">
@@ -1027,13 +1027,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25">
         <v>34.34518417</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25">
         <v>134.0551314</v>
       </c>
       <c r="D25" t="str">
@@ -1045,7 +1045,7 @@
       <c r="F25" t="str">
         <v>３階</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25">
         <v>200</v>
       </c>
       <c r="H25" t="str">
@@ -1053,13 +1053,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
         <v>34.34375667</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <v>134.0563119</v>
       </c>
       <c r="D26" t="str">
@@ -1071,7 +1071,7 @@
       <c r="F26" t="str">
         <v>２階・３階</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26">
         <v>100</v>
       </c>
       <c r="H26" t="str">
@@ -1079,13 +1079,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27">
         <v>34.34643417</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <v>134.0620308</v>
       </c>
       <c r="D27" t="str">
@@ -1097,7 +1097,7 @@
       <c r="F27" t="str">
         <v>２階から５階まで</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27">
         <v>2150</v>
       </c>
       <c r="H27" t="str">
@@ -1105,13 +1105,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28">
         <v>34.34722306</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <v>134.0558478</v>
       </c>
       <c r="D28" t="str">
@@ -1123,7 +1123,7 @@
       <c r="F28" t="str">
         <v>２階</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28">
         <v>100</v>
       </c>
       <c r="H28" t="str">
@@ -1131,13 +1131,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29">
         <v>34.34792833</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <v>134.0577783</v>
       </c>
       <c r="D29" t="str">
@@ -1149,7 +1149,7 @@
       <c r="F29" t="str">
         <v>２階から４階まで</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29">
         <v>1600</v>
       </c>
       <c r="H29" t="str">
@@ -1157,13 +1157,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30">
         <v>34.34723972</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
         <v>134.0572228</v>
       </c>
       <c r="D30" t="str">
@@ -1175,7 +1175,7 @@
       <c r="F30" t="str">
         <v>２階から１０階まで</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30">
         <v>2400</v>
       </c>
       <c r="H30" t="str">
@@ -1183,13 +1183,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31">
         <v>34.34536472</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
         <v>134.0510844</v>
       </c>
       <c r="D31" t="str">
@@ -1201,7 +1201,7 @@
       <c r="F31" t="str">
         <v>エルステージ館の３階から１１階の廊下部分・禁煙館の３階から１２階</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31">
         <v>400</v>
       </c>
       <c r="H31" t="str">
@@ -1209,13 +1209,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32">
         <v>34.35120306</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32">
         <v>134.0524647</v>
       </c>
       <c r="D32" t="str">
@@ -1225,9 +1225,9 @@
         <v>高松市玉藻町9-10</v>
       </c>
       <c r="F32" t="str">
-        <v>２階・４階･５階のロビー</v>
-      </c>
-      <c r="G32" t="str">
+        <v>２階・４階・５階のロビー</v>
+      </c>
+      <c r="G32">
         <v>850</v>
       </c>
       <c r="H32" t="str">
@@ -1235,17 +1235,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33">
         <v>34.34689806</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33">
         <v>134.0539369</v>
       </c>
       <c r="D33" t="str">
-        <v>Ｇ－ＯＮＥ</v>
+        <v>Ｇ−ＯＮＥ</v>
       </c>
       <c r="E33" t="str">
         <v>高松市丸の内12-3</v>
@@ -1253,7 +1253,7 @@
       <c r="F33" t="str">
         <v>立体駐車場の３階以上</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33">
         <v>2000</v>
       </c>
       <c r="H33" t="str">
@@ -1261,13 +1261,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34">
         <v>34.34676722</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34">
         <v>134.051165</v>
       </c>
       <c r="D34" t="str">
@@ -1279,7 +1279,7 @@
       <c r="F34" t="str">
         <v>２階以上</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34">
         <v>13100</v>
       </c>
       <c r="H34" t="str">
@@ -1287,13 +1287,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35">
         <v>34.34613667</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <v>134.0478458</v>
       </c>
       <c r="D35" t="str">
@@ -1305,7 +1305,7 @@
       <c r="F35" t="str">
         <v>３階宴会場</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35">
         <v>150</v>
       </c>
       <c r="H35" t="str">
@@ -1313,13 +1313,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36">
         <v>34.34465</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36">
         <v>134.05093</v>
       </c>
       <c r="D36" t="str">
@@ -1331,7 +1331,7 @@
       <c r="F36" t="str">
         <v>２階以上</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G36">
         <v>5081</v>
       </c>
       <c r="H36" t="str">
@@ -1339,13 +1339,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37">
         <v>34.34417028</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37">
         <v>134.0492236</v>
       </c>
       <c r="D37" t="str">
@@ -1357,7 +1357,7 @@
       <c r="F37" t="str">
         <v>３階</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37">
         <v>350</v>
       </c>
       <c r="H37" t="str">
@@ -1365,13 +1365,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38">
         <v>34.34583972</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <v>134.0505317</v>
       </c>
       <c r="D38" t="str">
@@ -1383,7 +1383,7 @@
       <c r="F38" t="str">
         <v>高松丸亀町壱番街ビル東館４階</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38">
         <v>150</v>
       </c>
       <c r="H38" t="str">
@@ -1391,13 +1391,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39">
         <v>34.34155667</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <v>134.0487486</v>
       </c>
       <c r="D39" t="str">
@@ -1409,7 +1409,7 @@
       <c r="F39" t="str">
         <v>２階以上</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39">
         <v>3200</v>
       </c>
       <c r="H39" t="str">
@@ -1417,13 +1417,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40">
         <v>34.34347028</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <v>134.0463461</v>
       </c>
       <c r="D40" t="str">
@@ -1435,7 +1435,7 @@
       <c r="F40" t="str">
         <v>２階以上</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40">
         <v>100</v>
       </c>
       <c r="H40" t="str">
@@ -1443,13 +1443,13 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41">
         <v>34.34372306</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41">
         <v>134.0444686</v>
       </c>
       <c r="D41" t="str">
@@ -1461,7 +1461,7 @@
       <c r="F41" t="str">
         <v>２階</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41">
         <v>100</v>
       </c>
       <c r="H41" t="str">
@@ -1469,13 +1469,13 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42">
         <v>34.34442306</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42">
         <v>134.0421797</v>
       </c>
       <c r="D42" t="str">
@@ -1487,7 +1487,7 @@
       <c r="F42" t="str">
         <v>体育館　２階</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42">
         <v>1000</v>
       </c>
       <c r="H42" t="str">
@@ -1495,13 +1495,13 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43">
         <v>34.34201222</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43">
         <v>134.0438575</v>
       </c>
       <c r="D43" t="str">
@@ -1513,7 +1513,7 @@
       <c r="F43" t="str">
         <v>体育館　２階</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43">
         <v>1000</v>
       </c>
       <c r="H43" t="str">
@@ -1521,13 +1521,13 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44">
         <v>34.34458667</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44">
         <v>134.0359136</v>
       </c>
       <c r="D44" t="str">
@@ -1539,7 +1539,7 @@
       <c r="F44" t="str">
         <v>２階</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44">
         <v>100</v>
       </c>
       <c r="H44" t="str">
@@ -1547,13 +1547,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45">
         <v>34.3482975</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45">
         <v>134.0440961</v>
       </c>
       <c r="D45" t="str">
@@ -1565,7 +1565,7 @@
       <c r="F45" t="str">
         <v>本館屋上</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45">
         <v>200</v>
       </c>
       <c r="H45" t="str">
@@ -1573,13 +1573,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46">
         <v>34.34594222</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46">
         <v>134.0405436</v>
       </c>
       <c r="D46" t="str">
@@ -1591,7 +1591,7 @@
       <c r="F46" t="str">
         <v>校舎</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G46">
         <v>750</v>
       </c>
       <c r="H46" t="str">
@@ -1599,13 +1599,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47">
         <v>34.35111111</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47">
         <v>134.0469903</v>
       </c>
       <c r="D47" t="str">
@@ -1615,9 +1615,9 @@
         <v>高松市浜ノ町1-1</v>
       </c>
       <c r="F47" t="str">
-        <v>２階共用廊下･３階宴会ロビー</v>
-      </c>
-      <c r="G47" t="str">
+        <v>２階共用廊下・３階宴会ロビー</v>
+      </c>
+      <c r="G47">
         <v>850</v>
       </c>
       <c r="H47" t="str">
@@ -1625,13 +1625,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48">
         <v>34.34975583</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48">
         <v>134.0423183</v>
       </c>
       <c r="D48" t="str">
@@ -1643,7 +1643,7 @@
       <c r="F48" t="str">
         <v>８階と屋上</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48">
         <v>500</v>
       </c>
       <c r="H48" t="str">
@@ -1651,13 +1651,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49">
         <v>34.35166</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49">
         <v>134.03847</v>
       </c>
       <c r="D49" t="str">
@@ -1669,7 +1669,7 @@
       <c r="F49" t="str">
         <v>各階%2525252525282～14階）の廊下及び屋上供用部分</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49">
         <v>282</v>
       </c>
       <c r="H49" t="str">
@@ -1677,13 +1677,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50">
         <v>34.3516</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50">
         <v>134.038</v>
       </c>
       <c r="D50" t="str">
@@ -1695,7 +1695,7 @@
       <c r="F50" t="str">
         <v>各階%2525252525282～14階）の廊下及び屋上供用部分</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50">
         <v>230</v>
       </c>
       <c r="H50" t="str">
@@ -1703,13 +1703,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51">
         <v>34.34388944</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51">
         <v>134.0340167</v>
       </c>
       <c r="D51" t="str">
@@ -1721,7 +1721,7 @@
       <c r="F51" t="str">
         <v>３階</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51">
         <v>500</v>
       </c>
       <c r="H51" t="str">
@@ -1729,13 +1729,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52">
         <v>34.35300278</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52">
         <v>134.0479178</v>
       </c>
       <c r="D52" t="str">
@@ -1747,7 +1747,7 @@
       <c r="F52" t="str">
         <v>２階</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52">
         <v>150</v>
       </c>
       <c r="H52" t="str">
@@ -1755,13 +1755,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53">
         <v>34.352575</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53">
         <v>134.0470042</v>
       </c>
       <c r="D53" t="str">
@@ -1773,7 +1773,7 @@
       <c r="F53" t="str">
         <v>ロビー</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G53">
         <v>400</v>
       </c>
       <c r="H53" t="str">
@@ -1781,13 +1781,13 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54">
         <v>34.352575</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54">
         <v>134.0470042</v>
       </c>
       <c r="D54" t="str">
@@ -1799,7 +1799,7 @@
       <c r="F54" t="str">
         <v>インフォメーションゾーン</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54">
         <v>250</v>
       </c>
       <c r="H54" t="str">
@@ -1807,13 +1807,13 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55">
         <v>34.352575</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55">
         <v>134.0470042</v>
       </c>
       <c r="D55" t="str">
@@ -1825,7 +1825,7 @@
       <c r="F55" t="str">
         <v>３階・４階・７階・８階の一部</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G55">
         <v>1500</v>
       </c>
       <c r="H55" t="str">
@@ -1833,13 +1833,13 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56">
         <v>34.3471725</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56">
         <v>134.0301975</v>
       </c>
       <c r="D56" t="str">
@@ -1851,7 +1851,7 @@
       <c r="F56" t="str">
         <v>体育館</v>
       </c>
-      <c r="G56" t="str">
+      <c r="G56">
         <v>400</v>
       </c>
       <c r="H56" t="str">
@@ -1859,13 +1859,13 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57">
         <v>34.34767528</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57">
         <v>134.0326083</v>
       </c>
       <c r="D57" t="str">
@@ -1877,7 +1877,7 @@
       <c r="F57" t="str">
         <v>２階</v>
       </c>
-      <c r="G57" t="str">
+      <c r="G57">
         <v>200</v>
       </c>
       <c r="H57" t="str">
@@ -1885,13 +1885,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58">
         <v>34.33778472</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58">
         <v>134.0400219</v>
       </c>
       <c r="D58" t="str">
@@ -1903,7 +1903,7 @@
       <c r="F58" t="str">
         <v>校舎</v>
       </c>
-      <c r="G58" t="str">
+      <c r="G58">
         <v>250</v>
       </c>
       <c r="H58" t="str">
@@ -1911,13 +1911,13 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59">
         <v>34.33931222</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59">
         <v>134.0354667</v>
       </c>
       <c r="D59" t="str">
@@ -1929,7 +1929,7 @@
       <c r="F59" t="str">
         <v>２階</v>
       </c>
-      <c r="G59" t="str">
+      <c r="G59">
         <v>100</v>
       </c>
       <c r="H59" t="str">
@@ -1937,13 +1937,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60">
         <v>34.34047583</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60">
         <v>134.0301781</v>
       </c>
       <c r="D60" t="str">
@@ -1955,7 +1955,7 @@
       <c r="F60" t="str">
         <v>２階・３階・５階・６階の会議室</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G60">
         <v>400</v>
       </c>
       <c r="H60" t="str">
@@ -1963,13 +1963,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61">
         <v>34.342945</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61">
         <v>134.0261256</v>
       </c>
       <c r="D61" t="str">
@@ -1981,7 +1981,7 @@
       <c r="F61" t="str">
         <v>１階ロビー</v>
       </c>
-      <c r="G61" t="str">
+      <c r="G61">
         <v>400</v>
       </c>
       <c r="H61" t="str">
@@ -1989,13 +1989,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62">
         <v>34.34042333</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62">
         <v>134.0337861</v>
       </c>
       <c r="D62" t="str">
@@ -2007,7 +2007,7 @@
       <c r="F62" t="str">
         <v>校舎</v>
       </c>
-      <c r="G62" t="str">
+      <c r="G62">
         <v>1000</v>
       </c>
       <c r="H62" t="str">
@@ -2015,13 +2015,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63">
         <v>34.343799</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63">
         <v>134.02003</v>
       </c>
       <c r="D63" t="str">
@@ -2033,7 +2033,7 @@
       <c r="F63" t="str">
         <v>1階</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G63">
         <v>119</v>
       </c>
       <c r="H63" t="str">
@@ -2041,13 +2041,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64">
         <v>34.32491472</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64">
         <v>134.0698392</v>
       </c>
       <c r="D64" t="str">
@@ -2059,7 +2059,7 @@
       <c r="F64" t="str">
         <v>２階</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G64">
         <v>50</v>
       </c>
       <c r="H64" t="str">
@@ -2067,13 +2067,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65">
         <v>34.32080417</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C65">
         <v>134.0747194</v>
       </c>
       <c r="D65" t="str">
@@ -2085,7 +2085,7 @@
       <c r="F65" t="str">
         <v>校舎</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G65">
         <v>50</v>
       </c>
       <c r="H65" t="str">
@@ -2093,13 +2093,13 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66">
         <v>34.32491472</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66">
         <v>134.0698392</v>
       </c>
       <c r="D66" t="str">
@@ -2111,7 +2111,7 @@
       <c r="F66" t="str">
         <v>２階</v>
       </c>
-      <c r="G66" t="str">
+      <c r="G66">
         <v>300</v>
       </c>
       <c r="H66" t="str">
@@ -2119,13 +2119,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67">
         <v>34.3336525</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67">
         <v>134.0709525</v>
       </c>
       <c r="D67" t="str">
@@ -2137,7 +2137,7 @@
       <c r="F67" t="str">
         <v>宴会棟の３階</v>
       </c>
-      <c r="G67" t="str">
+      <c r="G67">
         <v>1050</v>
       </c>
       <c r="H67" t="str">
@@ -2145,13 +2145,13 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68">
         <v>34.3389075</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68">
         <v>134.0721661</v>
       </c>
       <c r="D68" t="str">
@@ -2163,7 +2163,7 @@
       <c r="F68" t="str">
         <v>４階</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G68">
         <v>450</v>
       </c>
       <c r="H68" t="str">
@@ -2171,13 +2171,13 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69">
         <v>34.32491472</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69">
         <v>134.0698392</v>
       </c>
       <c r="D69" t="str">
@@ -2189,7 +2189,7 @@
       <c r="F69" t="str">
         <v>立体駐車場の２階以上</v>
       </c>
-      <c r="G69" t="str">
+      <c r="G69">
         <v>6350</v>
       </c>
       <c r="H69" t="str">
@@ -2197,13 +2197,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70">
         <v>34.32491472</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70">
         <v>134.0698392</v>
       </c>
       <c r="D70" t="str">
@@ -2215,7 +2215,7 @@
       <c r="F70" t="str">
         <v>２階</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G70">
         <v>50</v>
       </c>
       <c r="H70" t="str">
@@ -2223,13 +2223,13 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71">
         <v>34.32491472</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71">
         <v>134.0698392</v>
       </c>
       <c r="D71" t="str">
@@ -2241,7 +2241,7 @@
       <c r="F71" t="str">
         <v>校舎</v>
       </c>
-      <c r="G71" t="str">
+      <c r="G71">
         <v>150</v>
       </c>
       <c r="H71" t="str">
@@ -2249,13 +2249,13 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="str">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72">
         <v>34.32491472</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72">
         <v>134.0698392</v>
       </c>
       <c r="D72" t="str">
@@ -2267,7 +2267,7 @@
       <c r="F72" t="str">
         <v>校舎</v>
       </c>
-      <c r="G72" t="str">
+      <c r="G72">
         <v>200</v>
       </c>
       <c r="H72" t="str">
@@ -2275,13 +2275,13 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="str">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73">
         <v>34.32491472</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73">
         <v>134.0698392</v>
       </c>
       <c r="D73" t="str">
@@ -2293,7 +2293,7 @@
       <c r="F73" t="str">
         <v>３階レクリエーションルーム・３階地域交流ルーム</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G73">
         <v>200</v>
       </c>
       <c r="H73" t="str">
@@ -2301,13 +2301,13 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74">
         <v>34.32491472</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74">
         <v>134.0698392</v>
       </c>
       <c r="D74" t="str">
@@ -2319,7 +2319,7 @@
       <c r="F74" t="str">
         <v>３階・４階・５階の廊下</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G74">
         <v>150</v>
       </c>
       <c r="H74" t="str">
@@ -2327,13 +2327,13 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="str">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75">
         <v>34.326186</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75">
         <v>134.076753</v>
       </c>
       <c r="D75" t="str">
@@ -2345,7 +2345,7 @@
       <c r="F75" t="str">
         <v>2階</v>
       </c>
-      <c r="G75" t="str">
+      <c r="G75">
         <v>150</v>
       </c>
       <c r="H75" t="str">
@@ -2353,13 +2353,13 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="str">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76">
         <v>34.3537625</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76">
         <v>134.1159869</v>
       </c>
       <c r="D76" t="str">
@@ -2371,7 +2371,7 @@
       <c r="F76" t="str">
         <v>体育館</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G76">
         <v>400</v>
       </c>
       <c r="H76" t="str">
@@ -2379,13 +2379,13 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="str">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77">
         <v>34.34742667</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77">
         <v>134.1031936</v>
       </c>
       <c r="D77" t="str">
@@ -2397,7 +2397,7 @@
       <c r="F77" t="str">
         <v>校舎</v>
       </c>
-      <c r="G77" t="str">
+      <c r="G77">
         <v>100</v>
       </c>
       <c r="H77" t="str">
@@ -2405,13 +2405,13 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="str">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78">
         <v>34.347035</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78">
         <v>134.0996331</v>
       </c>
       <c r="D78" t="str">
@@ -2423,7 +2423,7 @@
       <c r="F78" t="str">
         <v>体育館</v>
       </c>
-      <c r="G78" t="str">
+      <c r="G78">
         <v>650</v>
       </c>
       <c r="H78" t="str">
@@ -2431,13 +2431,13 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79">
         <v>34.36114722</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C79">
         <v>134.0943553</v>
       </c>
       <c r="D79" t="str">
@@ -2449,7 +2449,7 @@
       <c r="F79" t="str">
         <v>立体駐車場の２階・３階</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G79">
         <v>2850</v>
       </c>
       <c r="H79" t="str">
@@ -2457,13 +2457,13 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80">
         <v>34.34418222</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80">
         <v>134.0881619</v>
       </c>
       <c r="D80" t="str">
@@ -2475,7 +2475,7 @@
       <c r="F80" t="str">
         <v>立体駐車場の２階と屋上</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G80">
         <v>8000</v>
       </c>
       <c r="H80" t="str">
@@ -2483,13 +2483,13 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81">
         <v>34.35843639</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81">
         <v>134.0893058</v>
       </c>
       <c r="D81" t="str">
@@ -2501,7 +2501,7 @@
       <c r="F81" t="str">
         <v>５階</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G81">
         <v>450</v>
       </c>
       <c r="H81" t="str">
@@ -2509,17 +2509,17 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="str">
-        <v>34.35032889</v>
-      </c>
-      <c r="C82" t="str">
-        <v>134.0848647</v>
+      <c r="B82">
+        <v>34.34645269397389</v>
+      </c>
+      <c r="C82">
+        <v>134.08591164270598</v>
       </c>
       <c r="D82" t="str">
-        <v>旧高松テルサ</v>
+        <v>せとうち観光専門職短期大学</v>
       </c>
       <c r="E82" t="str">
         <v>高松市屋島西町2366-1</v>
@@ -2527,7 +2527,7 @@
       <c r="F82" t="str">
         <v>２階から４階まで</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G82">
         <v>2500</v>
       </c>
       <c r="H82" t="str">
@@ -2535,13 +2535,13 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="str">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83">
         <v>34.36114722</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C83">
         <v>134.0943553</v>
       </c>
       <c r="D83" t="str">
@@ -2553,7 +2553,7 @@
       <c r="F83" t="str">
         <v>校舎</v>
       </c>
-      <c r="G83" t="str">
+      <c r="G83">
         <v>200</v>
       </c>
       <c r="H83" t="str">
@@ -2561,13 +2561,13 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="str">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84">
         <v>34.35227583</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84">
         <v>134.0891614</v>
       </c>
       <c r="D84" t="str">
@@ -2579,7 +2579,7 @@
       <c r="F84" t="str">
         <v>２階</v>
       </c>
-      <c r="G84" t="str">
+      <c r="G84">
         <v>50</v>
       </c>
       <c r="H84" t="str">
@@ -2587,13 +2587,13 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="str">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85">
         <v>34.35927806</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85">
         <v>134.10301</v>
       </c>
       <c r="D85" t="str">
@@ -2605,7 +2605,7 @@
       <c r="F85" t="str">
         <v>１階・２階</v>
       </c>
-      <c r="G85" t="str">
+      <c r="G85">
         <v>100</v>
       </c>
       <c r="H85" t="str">
@@ -2613,13 +2613,13 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="str">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86">
         <v>34.36114722</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86">
         <v>134.0943553</v>
       </c>
       <c r="D86" t="str">
@@ -2631,7 +2631,7 @@
       <c r="F86" t="str">
         <v>３階から６階の廊下部分</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G86">
         <v>1100</v>
       </c>
       <c r="H86" t="str">
@@ -2639,13 +2639,13 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="str">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B87">
         <v>34.32964</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87">
         <v>134.087006</v>
       </c>
       <c r="D87" t="str">
@@ -2657,7 +2657,7 @@
       <c r="F87" t="str">
         <v>本館の２，３，４，５階 ・ 1号館２，３，４階 ・ ２号館の２，３階 ・ 図書館の３階 ・ 学生会館の２階 ・ クラブハウスの２階 ・ 体育館の２階</v>
       </c>
-      <c r="G87" t="str">
+      <c r="G87">
         <v>2750</v>
       </c>
       <c r="H87" t="str">
@@ -2665,13 +2665,13 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="str">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88">
         <v>34.33583333</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88">
         <v>134.0937228</v>
       </c>
       <c r="D88" t="str">
@@ -2683,7 +2683,7 @@
       <c r="F88" t="str">
         <v>２階・７階</v>
       </c>
-      <c r="G88" t="str">
+      <c r="G88">
         <v>150</v>
       </c>
       <c r="H88" t="str">
@@ -2691,13 +2691,13 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="str">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89">
         <v>34.33263944</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89">
         <v>134.1030886</v>
       </c>
       <c r="D89" t="str">
@@ -2709,7 +2709,7 @@
       <c r="F89" t="str">
         <v>校舎</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G89">
         <v>250</v>
       </c>
       <c r="H89" t="str">
@@ -2717,13 +2717,13 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90">
         <v>34.32479889</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C90">
         <v>134.1028306</v>
       </c>
       <c r="D90" t="str">
@@ -2735,7 +2735,7 @@
       <c r="F90" t="str">
         <v>校舎</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G90">
         <v>150</v>
       </c>
       <c r="H90" t="str">
@@ -2743,13 +2743,13 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="str">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91">
         <v>34.32871222</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91">
         <v>134.0992336</v>
       </c>
       <c r="D91" t="str">
@@ -2761,7 +2761,7 @@
       <c r="F91" t="str">
         <v>５階</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G91">
         <v>350</v>
       </c>
       <c r="H91" t="str">
@@ -2769,13 +2769,13 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="str">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92">
         <v>34.32956806</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C92">
         <v>134.1187678</v>
       </c>
       <c r="D92" t="str">
@@ -2787,7 +2787,7 @@
       <c r="F92" t="str">
         <v>校舎</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G92">
         <v>150</v>
       </c>
       <c r="H92" t="str">
@@ -2795,13 +2795,13 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="str">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93">
         <v>34.3292175</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C93">
         <v>134.0992836</v>
       </c>
       <c r="D93" t="str">
@@ -2813,7 +2813,7 @@
       <c r="F93" t="str">
         <v>３，４階オープンスペースおよび屋上</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G93">
         <v>850</v>
       </c>
       <c r="H93" t="str">
@@ -2821,13 +2821,13 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94">
         <v>34.32697333</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C94">
         <v>134.0917119</v>
       </c>
       <c r="D94" t="str">
@@ -2839,7 +2839,7 @@
       <c r="F94" t="str">
         <v>２階</v>
       </c>
-      <c r="G94" t="str">
+      <c r="G94">
         <v>100</v>
       </c>
       <c r="H94" t="str">
@@ -2847,13 +2847,13 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95">
         <v>34.32746</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C95">
         <v>134.09237</v>
       </c>
       <c r="D95" t="str">
@@ -2865,7 +2865,7 @@
       <c r="F95" t="str">
         <v>店舗２階イベントホール</v>
       </c>
-      <c r="G95" t="str">
+      <c r="G95">
         <v>121</v>
       </c>
       <c r="H95" t="str">
@@ -2873,13 +2873,13 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="str">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B96">
         <v>34.34978</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C96">
         <v>134.00953</v>
       </c>
       <c r="D96" t="str">
@@ -2891,7 +2891,7 @@
       <c r="F96" t="str">
         <v>2階 体育館ホール、ギャラリー、トレーニングスペース</v>
       </c>
-      <c r="G96" t="str">
+      <c r="G96">
         <v>113</v>
       </c>
       <c r="H96" t="str">
@@ -2899,13 +2899,13 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="str">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B97">
         <v>34.35095472</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C97">
         <v>134.0031525</v>
       </c>
       <c r="D97" t="str">
@@ -2917,7 +2917,7 @@
       <c r="F97" t="str">
         <v>４階と屋上の駐車場部分</v>
       </c>
-      <c r="G97" t="str">
+      <c r="G97">
         <v>10000</v>
       </c>
       <c r="H97" t="str">
@@ -2925,13 +2925,13 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="str">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98">
         <v>34.34682444</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C98">
         <v>133.99622</v>
       </c>
       <c r="D98" t="str">
@@ -2943,7 +2943,7 @@
       <c r="F98" t="str">
         <v>２階</v>
       </c>
-      <c r="G98" t="str">
+      <c r="G98">
         <v>100</v>
       </c>
       <c r="H98" t="str">
@@ -2951,13 +2951,13 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="str">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99">
         <v>34.34290278</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C99">
         <v>134.0037278</v>
       </c>
       <c r="D99" t="str">
@@ -2969,7 +2969,7 @@
       <c r="F99" t="str">
         <v>立体駐車場の２階から屋上まで</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G99">
         <v>3600</v>
       </c>
       <c r="H99" t="str">
@@ -2977,13 +2977,13 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="str">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100">
         <v>34.34211111</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C100">
         <v>134.0007281</v>
       </c>
       <c r="D100" t="str">
@@ -2995,7 +2995,7 @@
       <c r="F100" t="str">
         <v>２階</v>
       </c>
-      <c r="G100" t="str">
+      <c r="G100">
         <v>100</v>
       </c>
       <c r="H100" t="str">
@@ -3003,13 +3003,13 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="str">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101">
         <v>34.33905028</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C101">
         <v>133.9978061</v>
       </c>
       <c r="D101" t="str">
@@ -3021,7 +3021,7 @@
       <c r="F101" t="str">
         <v>校舎</v>
       </c>
-      <c r="G101" t="str">
+      <c r="G101">
         <v>100</v>
       </c>
       <c r="H101" t="str">
@@ -3029,13 +3029,13 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="str">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102">
         <v>34.34546083</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C102">
         <v>133.9979003</v>
       </c>
       <c r="D102" t="str">
@@ -3047,7 +3047,7 @@
       <c r="F102" t="str">
         <v>校舎</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G102">
         <v>150</v>
       </c>
       <c r="H102" t="str">
@@ -3055,13 +3055,13 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="str">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103">
         <v>34.35634</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C103">
         <v>133.9888564</v>
       </c>
       <c r="D103" t="str">
@@ -3073,7 +3073,7 @@
       <c r="F103" t="str">
         <v>４階テラス部分と屋上</v>
       </c>
-      <c r="G103" t="str">
+      <c r="G103">
         <v>250</v>
       </c>
       <c r="H103" t="str">
@@ -3081,13 +3081,13 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="str">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B104">
         <v>34.34254472</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C104">
         <v>134.007305</v>
       </c>
       <c r="D104" t="str">
@@ -3099,7 +3099,7 @@
       <c r="F104" t="str">
         <v>屋上駐車場</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G104">
         <v>800</v>
       </c>
       <c r="H104" t="str">
@@ -3107,13 +3107,13 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="str">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B105">
         <v>34.35712528</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C105">
         <v>133.9559758</v>
       </c>
       <c r="D105" t="str">
@@ -3125,7 +3125,7 @@
       <c r="F105" t="str">
         <v>体育館</v>
       </c>
-      <c r="G105" t="str">
+      <c r="G105">
         <v>550</v>
       </c>
       <c r="H105" t="str">
@@ -3133,13 +3133,13 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="str">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106">
         <v>34.35870861</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C106">
         <v>133.9687664</v>
       </c>
       <c r="D106" t="str">
@@ -3151,7 +3151,7 @@
       <c r="F106" t="str">
         <v>施設内</v>
       </c>
-      <c r="G106" t="str">
+      <c r="G106">
         <v>500</v>
       </c>
       <c r="H106" t="str">
@@ -3159,13 +3159,13 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="str">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107">
         <v>34.35771139</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C107">
         <v>133.9666417</v>
       </c>
       <c r="D107" t="str">
@@ -3177,7 +3177,7 @@
       <c r="F107" t="str">
         <v>体育館</v>
       </c>
-      <c r="G107" t="str">
+      <c r="G107">
         <v>600</v>
       </c>
       <c r="H107" t="str">
@@ -3185,13 +3185,13 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="str">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108">
         <v>34.33324056</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C108">
         <v>134.1535814</v>
       </c>
       <c r="D108" t="str">
@@ -3203,7 +3203,7 @@
       <c r="F108" t="str">
         <v>校舎</v>
       </c>
-      <c r="G108" t="str">
+      <c r="G108">
         <v>200</v>
       </c>
       <c r="H108" t="str">
@@ -3211,13 +3211,13 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="str">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109">
         <v>34.33351</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C109">
         <v>134.1567117</v>
       </c>
       <c r="D109" t="str">
@@ -3229,7 +3229,7 @@
       <c r="F109" t="str">
         <v>物産館および真念堂</v>
       </c>
-      <c r="G109" t="str">
+      <c r="G109">
         <v>150</v>
       </c>
       <c r="H109" t="str">
@@ -3237,13 +3237,13 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="str">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B110">
         <v>34.38324278</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C110">
         <v>134.1307706</v>
       </c>
       <c r="D110" t="str">
@@ -3255,7 +3255,7 @@
       <c r="F110" t="str">
         <v>校舎</v>
       </c>
-      <c r="G110" t="str">
+      <c r="G110">
         <v>100</v>
       </c>
       <c r="H110" t="str">
@@ -3263,13 +3263,13 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="str">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B111">
         <v>34.3844425</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C111">
         <v>134.1318539</v>
       </c>
       <c r="D111" t="str">
@@ -3281,7 +3281,7 @@
       <c r="F111" t="str">
         <v>校舎</v>
       </c>
-      <c r="G111" t="str">
+      <c r="G111">
         <v>100</v>
       </c>
       <c r="H111" t="str">
@@ -3289,13 +3289,13 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="str">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B112">
         <v>34.3853175</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C112">
         <v>134.1299483</v>
       </c>
       <c r="D112" t="str">
@@ -3307,7 +3307,7 @@
       <c r="F112" t="str">
         <v>２階</v>
       </c>
-      <c r="G112" t="str">
+      <c r="G112">
         <v>850</v>
       </c>
       <c r="H112" t="str">
@@ -3315,13 +3315,13 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="str">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B113">
         <v>34.38328139</v>
       </c>
-      <c r="C113" t="str">
+      <c r="C113">
         <v>134.1249322</v>
       </c>
       <c r="D113" t="str">
@@ -3333,7 +3333,7 @@
       <c r="F113" t="str">
         <v>２階</v>
       </c>
-      <c r="G113" t="str">
+      <c r="G113">
         <v>50</v>
       </c>
       <c r="H113" t="str">
@@ -3341,13 +3341,13 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="str">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B114">
         <v>34.38463139</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C114">
         <v>134.1264239</v>
       </c>
       <c r="D114" t="str">
@@ -3359,7 +3359,7 @@
       <c r="F114" t="str">
         <v>議会棟</v>
       </c>
-      <c r="G114" t="str">
+      <c r="G114">
         <v>50</v>
       </c>
       <c r="H114" t="str">
@@ -3367,13 +3367,13 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="str">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B115">
         <v>34.388357</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C115">
         <v>134.129479</v>
       </c>
       <c r="D115" t="str">
@@ -3385,7 +3385,7 @@
       <c r="F115" t="str">
         <v>バルコニー部分</v>
       </c>
-      <c r="G115" t="str">
+      <c r="G115">
         <v>200</v>
       </c>
       <c r="H115" t="str">
